--- a/results_xlsx/predmety_kde_garant_neuci.xlsx
+++ b/results_xlsx/predmety_kde_garant_neuci.xlsx
@@ -1630,7 +1630,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -1650,15 +1650,15 @@
         <v>144</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
@@ -1678,10 +1678,10 @@
         <v>144</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:10">
